--- a/test_cases/PE-16_TC-05_CreateAccountInvalidAICharacterLimit500.xlsx
+++ b/test_cases/PE-16_TC-05_CreateAccountInvalidAICharacterLimit500.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nico\Escritorio\.UADE\TESTING\TestingAplicaciones-Smere-TPO\test_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fuckultad\testin\tpo\TestingAplicaciones-Smere-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50A1E2F-5AA8-465E-B32D-F316E2D8B0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5978E80-D6D3-48FC-AB48-D455AF126191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -192,28 +192,28 @@
     <t>Click register button</t>
   </si>
   <si>
-    <t>Create Account - Invalid date of birth</t>
-  </si>
-  <si>
     <t>User is correctly registered</t>
   </si>
   <si>
     <t>Date of birth 01/01/2004</t>
   </si>
   <si>
-    <t>Additional information = Big windLorem ipsum dolor sit amet, consectetur adipiscing elit. Vivamus varius, ex eu elementum gravida, mauris nisi scelerisque quam, tempor dapibus orci quam ultricies lacus. Suspendisse dapibus, nibh sed pharetra accumsan, dolor ligula varius ante, a rutrum justo mi fringilla nunc. Lorem ipsum dolor sit amet, consectetur adipiscing elit. Duis dui velit, commodo vel lectus in, mollis porta elit. Quisque interdum leo purus, vitae fringilla risus tincidunt quis. Pellentesque fringilla nisi quis diam  owed building on the corner</t>
-  </si>
-  <si>
     <t>Password = Passtest1!</t>
   </si>
   <si>
     <t>Nicolas Chareca</t>
   </si>
   <si>
+    <t>Additional information = Big windLorem ipsum dolor sit amet, consectetur adipiscing elit. Vivamus varius, ex eu elementum gravida, mauris nisi scelerisque quam, tempor dapibus orci quam ultricies lacus. Suspendisse dapibus, nibh sed pharetra accumsan, dolor ligula varius ante, a rutrum justo mi fringilla nunc. Lorem ipsum dolor sit amet, consectetur adipiscing elit. Duis dui velit, commodo vel lectus in, mollis porta elit. Quisque interdum leo purus, vitae fringilla risus tincidunt quis. Pellentesque fringilla nisi quis diam  owed building on the corner.</t>
+  </si>
+  <si>
+    <t>Create Account - Additional Information Character Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify additional information field's character limit entering 500 characters </t>
+  </si>
+  <si>
     <t>TC-16-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify additional information field's character limit entering 500 characters </t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="28"/>
       <c r="F1" s="14"/>
@@ -1110,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="I8" s="52"/>
       <c r="J8" s="51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K8" s="52"/>
       <c r="L8" s="14"/>
@@ -1353,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="14"/>
@@ -1373,7 +1373,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -1561,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="7" t="s">

--- a/test_cases/PE-16_TC-05_CreateAccountInvalidAICharacterLimit500.xlsx
+++ b/test_cases/PE-16_TC-05_CreateAccountInvalidAICharacterLimit500.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fuckultad\testin\tpo\TestingAplicaciones-Smere-TPO\test_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b00242\Desktop\uade\testis\TestingAplicaciones-Smere-TPO\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5978E80-D6D3-48FC-AB48-D455AF126191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -219,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,6 +707,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -758,47 +790,14 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Celda de comprobación" xfId="2" builtinId="23"/>
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Note 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Note 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1075,11 +1074,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,20 +1100,20 @@
       <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
@@ -1129,16 +1128,16 @@
       <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
@@ -1147,8 +1146,8 @@
       <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
@@ -1159,10 +1158,10 @@
       <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="41"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1203,14 +1202,14 @@
       <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="49"/>
+      <c r="K5" s="34"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
@@ -1225,14 +1224,14 @@
       <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="51" t="s">
+      <c r="I6" s="37"/>
+      <c r="J6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="37"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -1255,14 +1254,14 @@
       <c r="G7" s="10">
         <v>2</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="H7" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="51" t="s">
+      <c r="I7" s="37"/>
+      <c r="J7" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="37"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -1285,14 +1284,14 @@
       <c r="G8" s="10">
         <v>3</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="52"/>
-      <c r="J8" s="51" t="s">
+      <c r="I8" s="37"/>
+      <c r="J8" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="52"/>
+      <c r="K8" s="37"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
@@ -1416,16 +1415,16 @@
         <v>40</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
@@ -1438,22 +1437,22 @@
         <v>41</v>
       </c>
       <c r="F15" s="14"/>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50" t="s">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50" t="s">
+      <c r="J15" s="35"/>
+      <c r="K15" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50" t="s">
+      <c r="L15" s="35"/>
+      <c r="M15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="50"/>
+      <c r="N15" s="35"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
@@ -1466,22 +1465,22 @@
         <v>42</v>
       </c>
       <c r="F16" s="14"/>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="44" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="44" t="s">
+      <c r="J16" s="30"/>
+      <c r="K16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="44" t="s">
+      <c r="L16" s="30"/>
+      <c r="M16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
@@ -1692,22 +1691,22 @@
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53" t="s">
+      <c r="H25" s="28"/>
+      <c r="I25" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53" t="s">
+      <c r="J25" s="28"/>
+      <c r="K25" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53" t="s">
+      <c r="L25" s="28"/>
+      <c r="M25" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="53"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
@@ -1716,16 +1715,16 @@
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54" t="s">
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
@@ -1734,14 +1733,14 @@
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
@@ -1750,14 +1749,14 @@
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
@@ -1766,14 +1765,14 @@
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
@@ -1782,41 +1781,24 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
@@ -1833,13 +1815,30 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:K2"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
